--- a/data/income_statement/2digits/size/45_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/45_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1124 +841,1269 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>8267613.40776</v>
+        <v>8342002.50002</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9219745.275040001</v>
+        <v>9169771.183389999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>10976636.07469</v>
+        <v>11013565.90562</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>12097319.63109</v>
+        <v>12235120.90717</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>17887128.83154</v>
+        <v>18053337.43907</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>19115285.71492</v>
+        <v>19340731.38493</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20934266.26212</v>
+        <v>21259472.8098</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22018311.77113</v>
+        <v>22452476.71362</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>25177818.91413</v>
+        <v>25702324.36177</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>46506038.45793</v>
+        <v>46704572.10999001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>51834320.49026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>52709800.70877001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>70785775.406</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7507176.93825</v>
+        <v>7563895.63037</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>8365700.812630001</v>
+        <v>8305252.476810001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9982847.364329999</v>
+        <v>10008545.62843</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11039935.69211</v>
+        <v>11149915.56212</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>16097705.4205</v>
+        <v>16219251.71878</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>17005513.23011</v>
+        <v>17181544.05418</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18868850.12159</v>
+        <v>19104680.39167</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19805639.93789</v>
+        <v>20162514.10468</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>22635388.64726</v>
+        <v>23080690.55977</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39701540.66569</v>
+        <v>39813459.03053</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44749413.64976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>45534717.76115</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>63061891.71</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>524995.5073599999</v>
+        <v>534950.7714699999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>612515.76171</v>
+        <v>623604.18059</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>737778.5136099999</v>
+        <v>742493.62231</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>786550.00167</v>
+        <v>804477.44974</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1372173.00254</v>
+        <v>1404066.60338</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1744553.69224</v>
+        <v>1788278.37236</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1689681.36202</v>
+        <v>1771200.27882</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1790721.08088</v>
+        <v>1860916.93602</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2081775.11148</v>
+        <v>2134256.39584</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5749917.59845</v>
+        <v>5834788.50358</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5928085.624480001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5998998.50056</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6547648.319</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>235440.96215</v>
+        <v>243156.09818</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>241528.7007</v>
+        <v>240914.52599</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>256010.19675</v>
+        <v>262526.65488</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>270833.93731</v>
+        <v>280727.89531</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>417250.4085</v>
+        <v>430019.11691</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>365218.79257</v>
+        <v>370908.95839</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>375734.7785099999</v>
+        <v>383592.1393099999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>421950.75236</v>
+        <v>429045.67292</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>460655.15539</v>
+        <v>487377.40616</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1054580.19379</v>
+        <v>1056324.57588</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1156821.21602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1176084.44706</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1176235.377</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>192328.81691</v>
+        <v>205598.17873</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>178463.61063</v>
+        <v>178566.60192</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>189305.23592</v>
+        <v>192963.60599</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>200721.34826</v>
+        <v>210242.91158</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>291549.7024300001</v>
+        <v>305646.5298</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>294723.09185</v>
+        <v>299954.0494199999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>262818.85721</v>
+        <v>281225.09761</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>246789.49849</v>
+        <v>267172.3937200001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>238383.83138</v>
+        <v>263393.26258</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>862611.1131099999</v>
+        <v>889928.0058500001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>941117.96131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>955833.16273</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1253331.86</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>69615.07574</v>
+        <v>72395.03880999998</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>60279.69998</v>
+        <v>59957.15113</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>68026.48067</v>
+        <v>69447.46995999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>77522.11987000001</v>
+        <v>80797.46621000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>110288.23247</v>
+        <v>114793.13629</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>112158.85706</v>
+        <v>118355.59168</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>109798.00555</v>
+        <v>118772.088</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>118905.49611</v>
+        <v>129517.44977</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>119121.47186</v>
+        <v>128370.07759</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>335372.29725</v>
+        <v>355030.34072</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>366367.3182799999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>379838.17709</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>527391.634</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>90851.65605000001</v>
+        <v>101191.86096</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>75815.58009</v>
+        <v>76248.39745</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>79148.15033999999</v>
+        <v>82026.06659999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>85572.52929000001</v>
+        <v>91656.27305999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>105080.59601</v>
+        <v>113391.08929</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>108608.82048</v>
+        <v>107555.2742</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>89339.48428</v>
+        <v>96076.91336000002</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>80260.13931</v>
+        <v>86484.7916</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>82388.14052000002</v>
+        <v>94902.10153</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>349226.8727000001</v>
+        <v>358245.19939</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>362188.50811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>353350.57776</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>403906.724</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>31862.08512</v>
+        <v>32011.27896</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>42368.33056</v>
+        <v>42361.05334</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>42130.60490999999</v>
+        <v>41490.06943</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>37626.6991</v>
+        <v>37789.17231</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>76180.87395000001</v>
+        <v>77462.30422000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>73955.41430999999</v>
+        <v>74043.18354</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>63681.36737999999</v>
+        <v>66376.09625</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>47623.86307</v>
+        <v>51170.15235</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>36874.219</v>
+        <v>40121.08346</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>178011.94316</v>
+        <v>176652.46574</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>212562.13492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>222644.40788</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>322033.502</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>8075284.590849999</v>
+        <v>8136404.32129</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>9041281.664410001</v>
+        <v>8991204.581470001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>10787330.83877</v>
+        <v>10820602.29963</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11896598.28283</v>
+        <v>12024877.99559</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>17595579.12911</v>
+        <v>17747690.90927</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18820562.62307</v>
+        <v>19040777.33551</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20671447.40491</v>
+        <v>20978247.71219</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>21771522.27264</v>
+        <v>22185304.3199</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>24939435.08275</v>
+        <v>25438931.09919</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>45643427.34482</v>
+        <v>45814644.10414</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>50893202.52895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51753967.54604</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>69532443.546</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7042475.4849</v>
+        <v>7092095.61482</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>7950388.30909</v>
+        <v>7910885.456590001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>9517370.673679998</v>
+        <v>9537543.31519</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10491724.14367</v>
+        <v>10590809.93301</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>15607425.14334</v>
+        <v>15736764.18076</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16686670.58136</v>
+        <v>16887175.55464</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18295449.69972</v>
+        <v>18581047.52035</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19275592.04016</v>
+        <v>19648071.45451</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>22140757.67079</v>
+        <v>22575662.66829</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>40684199.09463</v>
+        <v>40912660.46586999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>45488069.51449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>46295667.64243</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>63445117.219</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>182469.71747</v>
+        <v>177209.08033</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>217733.32234</v>
+        <v>218254.09266</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>209573.82792</v>
+        <v>218446.43327</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>321336.6764299999</v>
+        <v>322745.31932</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>354162.65572</v>
+        <v>354277.0698300001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>325252.3804</v>
+        <v>338185.99208</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>365026.38892</v>
+        <v>370744.7484500001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>473674.95935</v>
+        <v>495533.93984</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>579578.34126</v>
+        <v>610490.31149</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1064937.53846</v>
+        <v>1095133.69266</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1118321.50847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1195783.40389</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1383126.793</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6365051.38267</v>
+        <v>6410145.79765</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>7205801.156529999</v>
+        <v>7177883.182440001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>8679164.41825</v>
+        <v>8688380.839260001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>9478811.366970001</v>
+        <v>9573032.50257</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>14357061.52553</v>
+        <v>14464243.05408</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>15379158.40409</v>
+        <v>15574178.71004</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>16862877.32592</v>
+        <v>17154892.53041</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>17621427.92853</v>
+        <v>17943324.03079</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>20126436.97247</v>
+        <v>20513844.04598</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>37214982.15453</v>
+        <v>37370887.9192</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>41800779.70067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>42467115.75487</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>59436804.53</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>484370.4161200001</v>
+        <v>494494.12105</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>512359.91705</v>
+        <v>504579.26615</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>615997.62151</v>
+        <v>617226.80521</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>674720.79686</v>
+        <v>677528.64201</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>859817.59477</v>
+        <v>881807.2146000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>934473.97091</v>
+        <v>927545.86276</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1001193.23773</v>
+        <v>987379.9623</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1120265.74654</v>
+        <v>1145690.89167</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1341071.90855</v>
+        <v>1347021.31774</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2164067.94403</v>
+        <v>2207300.8068</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2361319.04192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2420342.97787</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2383684.385</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10583.96864</v>
+        <v>10246.61579</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>14493.91317</v>
+        <v>10168.91534</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>12634.806</v>
+        <v>13489.23745</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>16855.30341</v>
+        <v>17503.46911</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>36383.36732</v>
+        <v>36436.84225</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>47785.82596</v>
+        <v>47264.98976</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>66352.74715</v>
+        <v>68030.27919</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>60223.40574</v>
+        <v>63522.59221</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>93670.44851</v>
+        <v>104306.99308</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>240211.45761</v>
+        <v>239338.04721</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>207649.26343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>212425.5058</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>241501.511</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1032809.10595</v>
+        <v>1044308.70647</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1090893.35532</v>
+        <v>1080319.12488</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1269960.16509</v>
+        <v>1283058.98444</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1404874.13916</v>
+        <v>1434068.06258</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1988153.98577</v>
+        <v>2010926.72851</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2133892.04171</v>
+        <v>2153601.78087</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2375997.70519</v>
+        <v>2397200.19184</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2495930.23248</v>
+        <v>2537232.86539</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2798677.41196</v>
+        <v>2863268.4309</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4959228.250190001</v>
+        <v>4901983.638269999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5405133.01446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5458299.903609999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6087326.327</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>813960.13422</v>
+        <v>813831.33746</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>854561.8559700001</v>
+        <v>839167.1362300001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>983656.97888</v>
+        <v>997404.96195</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1080512.37808</v>
+        <v>1105346.86896</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1528806.27513</v>
+        <v>1531076.20417</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1675634.2699</v>
+        <v>1681937.66398</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1834117.4456</v>
+        <v>1824978.93388</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1957051.78809</v>
+        <v>1950696.72909</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2139639.76651</v>
+        <v>2135946.79672</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3511975.12372</v>
+        <v>3492586.79692</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3947640.65621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3922112.29994</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4157474.037</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1066.9938</v>
+        <v>1098.34632</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1031.56035</v>
+        <v>945.1338900000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>490.50689</v>
+        <v>1058.02806</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>899.45712</v>
+        <v>1408.75632</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>961.44901</v>
+        <v>1368.38578</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3635.82256</v>
+        <v>3627.03921</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7217.107430000001</v>
+        <v>8611.12451</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>568.9862300000001</v>
+        <v>503.1389800000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1321.47881</v>
+        <v>1286.21048</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4436.108630000001</v>
+        <v>4608.538280000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4281.211649999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4024.98474</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1532.806</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>217952.52815</v>
+        <v>214293.26775</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>212749.83301</v>
+        <v>209868.59609</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>247147.04109</v>
+        <v>251821.07074</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>275658.3164600001</v>
+        <v>290112.0227800001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>407059.92568</v>
+        <v>414610.52042</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>457687.48585</v>
+        <v>473913.0501000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>504093.02432</v>
+        <v>512212.35419</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>526066.61044</v>
+        <v>542585.03478</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>566178.9743199999</v>
+        <v>578455.0075900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1180998.40163</v>
+        <v>1178635.53258</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1316042.0836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1315864.27864</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1318020.464</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>594940.6122699999</v>
+        <v>598439.7233899999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>640780.46261</v>
+        <v>628353.40625</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>736019.4309000002</v>
+        <v>744525.86315</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>803954.6045</v>
+        <v>813826.0898599999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1120784.90044</v>
+        <v>1115097.29797</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1214310.96149</v>
+        <v>1204397.57467</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1322807.31385</v>
+        <v>1304155.45518</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1430416.19142</v>
+        <v>1407608.55533</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1572139.31338</v>
+        <v>1556205.57865</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2326540.61346</v>
+        <v>2309342.72606</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2627317.36096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2602223.03656</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2837920.767</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>218848.97173</v>
+        <v>230477.36901</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>236331.49935</v>
+        <v>241151.98865</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>286303.18621</v>
+        <v>285654.02249</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>324361.76108</v>
+        <v>328721.19362</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>459347.71064</v>
+        <v>479850.5243399999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>458257.7718100001</v>
+        <v>471664.1168899999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>541880.25959</v>
+        <v>572221.2579600001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>538878.44439</v>
+        <v>586536.1363000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>659037.6454500001</v>
+        <v>727321.6341800001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1447253.12647</v>
+        <v>1409396.84135</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1457492.35825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1536187.60367</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1929852.29</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>82919.03244000001</v>
+        <v>106269.91027</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>85053.16650000001</v>
+        <v>102774.73614</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>97643.44674</v>
+        <v>131275.89702</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>79680.6646</v>
+        <v>102070.0152</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>165783.44029</v>
+        <v>190999.00982</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>140264.17941</v>
+        <v>166360.7482</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>209250.55854</v>
+        <v>298883.5841</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>181995.1053</v>
+        <v>328865.81883</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>207711.34456</v>
+        <v>329061.98774</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1017373.51374</v>
+        <v>1342008.9653</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>634360.1708600001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>785566.41079</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1080681.638</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>68.81638000000001</v>
+        <v>5868.18115</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>174.6029</v>
+        <v>16904.45086</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>758.6408399999999</v>
+        <v>11202.07159</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1001.08333</v>
+        <v>8844.172630000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1012.10273</v>
+        <v>10916.10288</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3616.19902</v>
+        <v>10531.61048</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1619.32737</v>
+        <v>14758.60584</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2537.64296</v>
+        <v>17640.01056</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>599.81785</v>
+        <v>29913.51982</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3886.77734</v>
+        <v>27703.15792</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>7893.17007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>23992.74118</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3522.983</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>185.21232</v>
+        <v>504.84123</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>121.79983</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>109.03565</v>
+        <v>6225.24474</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>109.83688</v>
+        <v>741.68555</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>55.433</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>48.61717</v>
+        <v>832.6838399999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10.00525</v>
+        <v>7.581729999999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>17.96501</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>46.39996</v>
+        <v>10030.95818</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>87.37701000000001</v>
+        <v>17852.65217</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>7279.28283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>47822.5014</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5727.751</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10033.59423</v>
+        <v>13885.01532</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7068.90505</v>
+        <v>8725.1307</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5985.16504</v>
+        <v>8291.037039999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7800.03703</v>
+        <v>9680.724880000002</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12441.80761</v>
+        <v>13033.55934</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>16231.7036</v>
+        <v>19386.35585</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17328.96167</v>
+        <v>17371.58301</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22088.22413</v>
+        <v>39144.37098</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>23590.71088</v>
+        <v>39592.15143</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>78397.77223</v>
+        <v>105907.79349</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>98256.22879000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>127758.7839</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>78545.375</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>8642.08879</v>
+        <v>8956.29953</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5999.94548</v>
+        <v>6055.722309999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4320.31012</v>
+        <v>4356.96222</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1420.17344</v>
+        <v>1513.87141</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2893.99942</v>
+        <v>3590.86464</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4805.90613</v>
+        <v>5351.18237</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5850.87374</v>
+        <v>6021.49911</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5043.822349999999</v>
+        <v>5156.1518</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5459.957429999999</v>
+        <v>6250.79237</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>8675.13572</v>
+        <v>8172.25483</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6471.41347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5767.30984</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6985.443</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>912.16098</v>
+        <v>1001.12465</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>694.34174</v>
+        <v>729.4107700000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>532.11545</v>
+        <v>796.1808000000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1031.36899</v>
+        <v>2242.38884</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2634.32289</v>
+        <v>2897.60053</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2013.15616</v>
+        <v>2052.38384</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4450.38338</v>
+        <v>3649.470389999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3282.536270000001</v>
+        <v>3477.3551</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3867.76063</v>
+        <v>3570.6988</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>10450.9828</v>
+        <v>10015.69472</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10050.05127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8083.521659999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7859.833</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1150.42045</v>
+        <v>1664.40391</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>624.04625</v>
+        <v>954.9918299999998</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>597.5312000000001</v>
+        <v>955.4568200000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>723.05598</v>
+        <v>904.52183</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1128.6836</v>
+        <v>1422.88349</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1013.3297</v>
+        <v>1264.13115</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1348.09405</v>
+        <v>17085.53748</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>752.96457</v>
+        <v>952.7596200000002</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1381.23858</v>
+        <v>1568.93666</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4332.278189999999</v>
+        <v>4059.00021</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7416.48567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7257.51933</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>10082.389</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>30252.62868</v>
+        <v>43197.34172</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>29724.305</v>
+        <v>35046.20943</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>44888.04229</v>
+        <v>59378.05161</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>23619.46026</v>
+        <v>32237.51661</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>80477.80768000001</v>
+        <v>98350.26333</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>55188.75283</v>
+        <v>67021.14564</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>116666.05024</v>
+        <v>157962.8686</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>84263.98796</v>
+        <v>165707.63377</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>98312.64519000001</v>
+        <v>147673.74033</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>748495.80587</v>
+        <v>1005106.36751</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>316220.71001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>385865.88447</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>794489.443</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>364.52775</v>
+        <v>295.19082</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>118.16443</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>117.59116</v>
+        <v>166.58138</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>101.87386</v>
+        <v>81.53139</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>357.92129</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>624.9721800000001</v>
+        <v>1068.04915</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>551.5896899999999</v>
@@ -2066,34 +2112,39 @@
         <v>238.38152</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>63.69122</v>
+        <v>114.73016</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>6507.03295</v>
+        <v>6502.094950000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1265.59202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7074.18099</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4485.621</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>422.07184</v>
+        <v>388.79571</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>509.20929</v>
+        <v>343.5492</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>364.37547</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>171.98421</v>
+        <v>131.81818</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>355.42201</v>
+        <v>355.42195</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>144.80836</v>
@@ -2102,301 +2153,341 @@
         <v>286.43273</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>356.68618</v>
+        <v>455.1040699999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>412.01386</v>
+        <v>508.43377</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>847.7350299999999</v>
+        <v>951.8067199999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>535.38623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>674.42576</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>338.238</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>30887.51102</v>
+        <v>30508.71623</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>40017.84653</v>
+        <v>33897.10661</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>39970.63952</v>
+        <v>39539.93535</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>43701.79062000001</v>
+        <v>45691.78388</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>64425.94005999999</v>
+        <v>60074.39236999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>56576.73426</v>
+        <v>58708.39752</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>61138.84042</v>
+        <v>81188.41552</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>63412.89435</v>
+        <v>96076.0864</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>73977.10896</v>
+        <v>89838.02622</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>155692.6166</v>
+        <v>155738.14278</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>178971.8505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>171269.54226</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>168644.562</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>57707.49511</v>
+        <v>75418.50352</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>48867.68817999999</v>
+        <v>51527.71795999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>62796.42518999999</v>
+        <v>77484.10703</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>46101.17043999999</v>
+        <v>60285.20066000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>101167.99278</v>
+        <v>123217.12422</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>89233.34242</v>
+        <v>100299.11245</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>149587.44363</v>
+        <v>195038.20805</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>99797.15712999999</v>
+        <v>234170.81583</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>123717.48958</v>
+        <v>208265.88389</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>887303.63281</v>
+        <v>1189952.05225</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>400787.19652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>512746.18119</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>854423.053</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4361.26932</v>
+        <v>4334.31543</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5076.554889999999</v>
+        <v>4977.96271</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6833.00821</v>
+        <v>7008.852720000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7488.585950000001</v>
+        <v>7915.37001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7045.61613</v>
+        <v>7916.11838</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7388.95043</v>
+        <v>7434.160420000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7410.01425</v>
+        <v>8142.04666</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7400.61709</v>
+        <v>8010.6379</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8908.87271</v>
+        <v>9072.787679999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>20544.70867</v>
+        <v>21353.13708</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22477.98698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>22270.4545</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>21634.514</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>13785.25823</v>
+        <v>16881.53803</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4085.08787</v>
+        <v>3847.75146</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5594.52276</v>
+        <v>6877.32578</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6136.00908</v>
+        <v>10904.08203</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8960.379920000001</v>
+        <v>9216.734010000002</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12085.79236</v>
+        <v>13173.89882</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13653.76627</v>
+        <v>12676.94602</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7742.264929999999</v>
+        <v>7993.272609999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>9896.06358</v>
+        <v>12863.9654</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>41573.92461</v>
+        <v>43267.20262</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>29746.61943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>30458.27078</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>17959.769</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1490.50194</v>
+        <v>1451.83194</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>201.51444</v>
+        <v>157.43261</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>141.4538</v>
+        <v>504.64161</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>204.06318</v>
+        <v>204.08351</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1871.36102</v>
+        <v>954.10577</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>666.87039</v>
+        <v>423.0429800000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>211.14617</v>
+        <v>190.66654</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>225.26974</v>
+        <v>1721.19273</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>710.33161</v>
+        <v>826.74577</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>8331.53132</v>
+        <v>8139.30418</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4306.3786</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4306.33249</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1343.703</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>29545.1232</v>
+        <v>43312.30728</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>30439.33979</v>
+        <v>34865.98929999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>39135.42778</v>
+        <v>52236.12746999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>23703.82585</v>
+        <v>31167.7029</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>66513.78838</v>
+        <v>86298.81866999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>54173.26206</v>
+        <v>64983.22715999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>110803.81801</v>
+        <v>155984.69014</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>67320.21539</v>
+        <v>172237.88789</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>89458.14808</v>
+        <v>150800.76472</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>781239.2319700001</v>
+        <v>1066661.01715</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>296171.19262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>392049.8784</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>749882.6189999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>369.6718</v>
+        <v>427.73528</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>86.86781999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>441.23712</v>
+        <v>41.03073</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>379.54837</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>595.7845800000001</v>
+        <v>1485.71537</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1035.80648</v>
+        <v>894.5526600000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>644.75012</v>
+        <v>647.09122</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>89.90532</v>
+        <v>1.38257</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>243.95586</v>
+        <v>234.86586</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>10131.60437</v>
+        <v>10121.04984</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3115.03396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>7690.294609999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>4916.382</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>360.08232</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>109.6189</v>
+        <v>101.17294</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>31.16748</v>
@@ -2405,7 +2496,7 @@
         <v>12.22737</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>24.15663</v>
+        <v>7.000000000000001e-05</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>22.5319</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>5e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>153.302</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7795.588299999999</v>
+        <v>8650.693240000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>8868.704470000001</v>
+        <v>7490.54112</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>10619.60804</v>
+        <v>10784.96124</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8176.91064</v>
+        <v>9702.186470000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>16156.90612</v>
+        <v>17345.63195</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>13860.1288</v>
+        <v>13367.69851</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16863.94846</v>
+        <v>17396.76712</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>17018.88454</v>
+        <v>44206.44201</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>14492.71352</v>
+        <v>34459.35024</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>25482.63178</v>
+        <v>40410.34129</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>44969.98488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>55970.95036</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>58532.764</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>117293.66099</v>
+        <v>125725.17008</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>89393.90018</v>
+        <v>95059.62027</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>112287.65136</v>
+        <v>117961.96992</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>129671.64976</v>
+        <v>150597.14937</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>192631.83421</v>
+        <v>212355.52214</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>221096.42077</v>
+        <v>257684.76476</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>255179.64628</v>
+        <v>290977.5618900001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>281849.64189</v>
+        <v>340283.40173</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>304736.14325</v>
+        <v>364123.21257</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>984725.01475</v>
+        <v>1049459.24837</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>951392.23578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1072091.62382</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>797144.3810000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>113630.62873</v>
+        <v>120312.99274</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>86220.16829999999</v>
+        <v>92233.18672</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>107944.48964</v>
+        <v>113026.38663</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>125239.59268</v>
+        <v>145367.19754</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>181974.04709</v>
+        <v>199663.0543</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>210317.98696</v>
+        <v>247163.19397</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>242142.63593</v>
+        <v>274926.36904</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>268874.18549</v>
+        <v>321822.8159099999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>289823.03974</v>
+        <v>345261.70527</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>943015.38777</v>
+        <v>1007347.16987</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>909754.69275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1014960.71032</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>745942.198</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3663.03226</v>
+        <v>5412.17734</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3173.73188</v>
+        <v>2826.43355</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4343.16172</v>
+        <v>4935.583289999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4432.05708</v>
+        <v>5229.95183</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>10657.78712</v>
+        <v>12692.46784</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10778.43381</v>
+        <v>10521.57079</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>13037.01035</v>
+        <v>16051.19285</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>12975.4564</v>
+        <v>18460.58582</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>14913.10351</v>
+        <v>18861.5073</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>41709.62698</v>
+        <v>42112.0785</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>41637.54302999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>57130.9135</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>51202.183</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>126766.84807</v>
+        <v>135603.60568</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>183123.07749</v>
+        <v>197339.38656</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>208862.5564</v>
+        <v>221483.84256</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>228269.60548</v>
+        <v>219908.85879</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>331331.32394</v>
+        <v>335276.8878</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>288192.18803</v>
+        <v>280040.98788</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>346363.72822</v>
+        <v>385089.07212</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>339226.75067</v>
+        <v>340947.73757</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>438295.35718</v>
+        <v>483994.52546</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>592597.99265</v>
+        <v>511994.5060300001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>739673.0968099999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>736916.2094500001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1358966.494</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>56675.71924</v>
+        <v>58326.21027</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>57554.91360999999</v>
+        <v>57040.11898000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>58004.81395</v>
+        <v>59647.52743</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>54407.21652999999</v>
+        <v>51067.0972</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>83976.41722</v>
+        <v>75823.3907</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>100460.2675</v>
+        <v>135722.67411</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>100672.12603</v>
+        <v>155182.85384</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>112666.78702</v>
+        <v>113924.7101</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>115726.32436</v>
+        <v>139440.02128</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>283949.3463000001</v>
+        <v>305915.72631</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>312864.62148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>310214.22105</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>334518.144</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>305.72764</v>
+        <v>390.3346</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>848.0048400000001</v>
+        <v>675.2174200000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>864.6547500000001</v>
+        <v>448.17572</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3543.12267</v>
+        <v>662.011</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>822.80756</v>
+        <v>803.9010599999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1215.15097</v>
+        <v>1172.24887</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>309.62124</v>
+        <v>334.7896900000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>808.45254</v>
+        <v>798.8581799999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1528.09791</v>
+        <v>1652.98388</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3254.71985</v>
+        <v>4644.24584</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3142.63765</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2878.53247</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2140.089</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>56369.99159999999</v>
+        <v>57935.87567</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>56706.90876999999</v>
+        <v>56364.90156000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>57140.15919999999</v>
+        <v>59199.35171</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>50864.09385999999</v>
+        <v>50405.08620000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>83153.60966</v>
+        <v>75019.48964</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>99245.11652999998</v>
+        <v>134550.42524</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>100362.50479</v>
+        <v>154848.06415</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>111858.33448</v>
+        <v>113125.85192</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>114198.22645</v>
+        <v>137787.0374</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>280694.62645</v>
+        <v>301271.48047</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>309721.98383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>307335.68858</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>332378.055</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37411.40747999999</v>
+        <v>36407.04951999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>58227.65006</v>
+        <v>57674.57106</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>191688.61971</v>
+        <v>193275.08761</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>39787.20729999999</v>
+        <v>41516.16462</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>73228.80364</v>
+        <v>71531.99107</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>127099.8321</v>
+        <v>130105.35083</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>69223.3688</v>
+        <v>72337.37813</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>182628.54872</v>
+        <v>177836.07174</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>80555.71818</v>
+        <v>102349.19099</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>323746.35177</v>
+        <v>321419.06468</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>196381.8952</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>220489.81639</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>215699.578</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>522.80447</v>
+        <v>263.84143</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>16131.68779</v>
+        <v>16074.58424</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>392.09103</v>
+        <v>1165.57678</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>187.79488</v>
+        <v>1375.9643</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>594.83201</v>
+        <v>1228.76022</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>640.73389</v>
+        <v>1685.13794</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>169.7533</v>
+        <v>318.6811</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>728.19287</v>
+        <v>807.7460999999998</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>191.52992</v>
+        <v>224.89282</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>468.77144</v>
+        <v>958.40797</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>1902.24398</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2874.934</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1451.3217</v>
+        <v>4194.85421</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>770.74249</v>
+        <v>631.1142600000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1961.57496</v>
+        <v>2240.01607</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2439.12661</v>
+        <v>1813.32883</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2033.56165</v>
+        <v>2486.57863</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1531.13754</v>
+        <v>1413.88142</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1681.88737</v>
+        <v>1693.75544</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2867.26172</v>
+        <v>2304.75856</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1252.46611</v>
+        <v>20546.34375</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3897.120710000001</v>
+        <v>3703.708149999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8863.638210000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>11388.54707</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>15312.603</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>35437.28131000001</v>
+        <v>31948.35388</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>41325.21978</v>
+        <v>40968.87256</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>189334.95372</v>
+        <v>189869.49476</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>37160.28581</v>
+        <v>38326.87149</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>70600.40997999998</v>
+        <v>67816.65222</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>124927.96067</v>
+        <v>127006.33147</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>67371.72812999999</v>
+        <v>70324.94159</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>179033.09413</v>
+        <v>174723.56708</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>79111.72214999999</v>
+        <v>81577.95441999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>319380.45962</v>
+        <v>316756.94856</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>185616.01301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>207199.02534</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>197512.041</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>146031.15983</v>
+        <v>157522.76643</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>182450.34104</v>
+        <v>196704.93448</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>75178.75063999998</v>
+        <v>87856.28237999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>242889.61471</v>
+        <v>229459.79137</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>342078.93752</v>
+        <v>339568.28743</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>261552.62343</v>
+        <v>285658.31116</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>377812.48545</v>
+        <v>467934.5478300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>269264.98897</v>
+        <v>277036.37593</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>473465.96336</v>
+        <v>521085.35575</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>552800.9871799999</v>
+        <v>496491.16766</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>856155.8230900001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>826640.61411</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1477785.06</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>39921.14502999999</v>
+        <v>40284.31392</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>43490.00044</v>
+        <v>42631.41696</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>52438.87498000001</v>
+        <v>53932.59071</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>54667.65816000001</v>
+        <v>54114.70725</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>78766.25038</v>
+        <v>81187.49939999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>77654.26131</v>
+        <v>78422.19760999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>88979.9133</v>
+        <v>91820.71001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>90364.33814000002</v>
+        <v>95308.55016999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>104192.1381</v>
+        <v>109163.77093</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>218283.09023</v>
+        <v>223986.86833</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>229600.49566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>228177.25015</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>354621.883</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>106110.0148</v>
+        <v>117238.45251</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>138960.3406</v>
+        <v>154073.51752</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>22739.87566</v>
+        <v>33923.69167</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>188221.95655</v>
+        <v>175345.08412</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>263312.68714</v>
+        <v>258380.78803</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>183898.36212</v>
+        <v>207236.11355</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>288832.57215</v>
+        <v>376113.8378200001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>178900.65083</v>
+        <v>181727.82576</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>369273.82526</v>
+        <v>411921.58482</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>334517.89695</v>
+        <v>272504.29933</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>626555.3274299999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>598463.36396</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1123163.177</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3201</v>
+        <v>2735</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3520</v>
+        <v>2948</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3953</v>
+        <v>3359</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4363</v>
+        <v>3698</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5144</v>
+        <v>4232</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5568</v>
+        <v>4524</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6140</v>
+        <v>4923</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6592</v>
+        <v>5169</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7318</v>
+        <v>5763</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4733</v>
+        <v>4101</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4307</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>